--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-12/result-12_03_2025_pruned_9098806415_08-10.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-12/result-12_03_2025_pruned_9098806415_08-10.xlsx
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098796476</t>
+          <t>9098797441</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-12T08:17:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-12T08:27:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>7915</v>
+        <v>6367</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -628,17 +628,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T10:16:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T10:26:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>8356</v>
+        <v>6798</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098797441</t>
+          <t>9098802601</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-12T10:16:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-12T10:26:00+00:00</t>
+          <t>2025-03-12T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G5" t="n">
         <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>6798</v>
+        <v>9307</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -756,24 +756,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098797222</t>
+          <t>9098803239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-12T10:41:00+00:00</t>
+          <t>2025-03-12T13:10:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-12T10:51:00+00:00</t>
+          <t>2025-03-12T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>15716</v>
+        <v>742</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098802601</t>
+          <t>9098807770</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T13:21:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-12T13:10:00+00:00</t>
+          <t>2025-03-12T13:31:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>396</v>
+        <v>1469</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,12 +884,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098803239</t>
+          <t>9098813434</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-12T13:10:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-12T13:20:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>742</v>
+        <v>10979</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -958,14 +958,14 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098798510</t>
+          <t>9098812675</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-12T13:20:00+00:00</t>
+          <t>2025-03-12T15:16:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T15:46:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>882</v>
+        <v>6312</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1007,29 +1007,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098807770</t>
+          <t>9098810053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T15:48:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-12T13:40:00+00:00</t>
+          <t>2025-03-12T15:58:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>963</v>
+        <v>2659</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1076,24 +1076,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098813434</t>
+          <t>9098812043</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T16:14:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="G11" t="n">
         <v>46</v>
       </c>
       <c r="H11" t="n">
-        <v>10979</v>
+        <v>6624</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9098812675</t>
+          <t>9098810793</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-12T15:16:00+00:00</t>
+          <t>2025-03-12T16:17:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-12T15:46:00+00:00</t>
+          <t>2025-03-12T16:27:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="n">
-        <v>6312</v>
+        <v>3493</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9098800790</t>
+          <t>9098812126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-12T15:47:00+00:00</t>
+          <t>2025-03-12T16:28:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-12T15:57:00+00:00</t>
+          <t>2025-03-12T16:58:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="I13">
         <f>IF(E13=E12,H13+I12,H13)</f>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1285,7 +1285,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098809909</t>
+          <t>9098816602</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-12T15:59:00+00:00</t>
+          <t>2025-03-12T17:12:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-12T16:09:00+00:00</t>
+          <t>2025-03-12T17:42:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="G14" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>2604</v>
+        <v>14194</v>
       </c>
       <c r="I14">
         <f>IF(E14=E13,H14+I13,H14)</f>
@@ -1327,29 +1327,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098810053</t>
+          <t>9098815123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-12T16:10:00+00:00</t>
+          <t>2025-03-12T17:45:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-12T16:20:00+00:00</t>
+          <t>2025-03-12T17:55:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="G15" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H15" t="n">
-        <v>1341</v>
+        <v>3982</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098812043</t>
+          <t>9098817329</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-12T16:26:00+00:00</t>
+          <t>2025-03-12T18:00:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-12T16:36:00+00:00</t>
+          <t>2025-03-12T18:10:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12.9</v>
+        <v>14.7</v>
       </c>
       <c r="G16" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H16" t="n">
-        <v>6624</v>
+        <v>5577</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1470,14 +1470,14 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098810793</t>
+          <t>9098800814</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,27 +1487,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-12T16:39:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-12T16:49:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13.5</v>
+        <v>0.3</v>
       </c>
       <c r="G17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3493</v>
+        <v>2646</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1519,29 +1519,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098812126</t>
+          <t>9098800682</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-12T16:50:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-12T17:20:00+00:00</t>
+          <t>2025-03-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>13.8</v>
+        <v>0.3</v>
       </c>
       <c r="G18" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1789</v>
+        <v>125</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1583,29 +1583,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098815123</t>
+          <t>9098796547</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,27 +1615,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-12T17:40:00+00:00</t>
+          <t>2025-03-12T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>10313</v>
+        <v>3795</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1647,29 +1647,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098817504</t>
+          <t>9098833298</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,27 +1679,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-12T17:41:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-12T17:51:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15.6</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>1213</v>
+        <v>11366</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1711,29 +1711,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098817329</t>
+          <t>9098808644</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,27 +1743,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-12T17:57:00+00:00</t>
+          <t>2025-03-12T13:44:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-12T18:07:00+00:00</t>
+          <t>2025-03-12T14:14:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>16.8</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H21" t="n">
-        <v>6702</v>
+        <v>14443</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1775,29 +1775,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098800814</t>
+          <t>9098809580</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T14:19:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T14:49:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1821,13 +1821,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>2646</v>
+        <v>5216</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1854,14 +1854,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098800682</t>
+          <t>9098815265</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T15:16:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-12T11:00:00+00:00</t>
+          <t>2025-03-12T15:46:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1885,13 +1885,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3</v>
+        <v>11.4</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
-        <v>125</v>
+        <v>27582</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1908,24 +1908,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098796547</t>
+          <t>9098815022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:00+00:00</t>
+          <t>2025-03-12T16:10:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-12T11:33:00+00:00</t>
+          <t>2025-03-12T16:40:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8999999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="H24" t="n">
-        <v>3795</v>
+        <v>24906</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098833298</t>
+          <t>9098817366</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="H25" t="n">
-        <v>11366</v>
+        <v>4812</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2046,14 +2046,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098808644</t>
+          <t>9098796026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,27 +2063,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-12T13:44:00+00:00</t>
+          <t>2025-03-12T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-12T14:14:00+00:00</t>
+          <t>2025-03-12T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14443</v>
+        <v>18533</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2110,14 +2110,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098809580</t>
+          <t>9098796321</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,27 +2127,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-12T14:19:00+00:00</t>
+          <t>2025-03-12T08:17:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-12T14:49:00+00:00</t>
+          <t>2025-03-12T08:27:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>5216</v>
+        <v>7559</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2174,14 +2174,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098815265</t>
+          <t>9098797657</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,27 +2191,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-12T15:16:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-12T15:46:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>27582</v>
+        <v>1016</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2223,29 +2223,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098815022</t>
+          <t>9098796965</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,27 +2255,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-12T16:10:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-12T16:40:00+00:00</t>
+          <t>2025-03-12T10:20:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15.9</v>
+        <v>4.5</v>
       </c>
       <c r="G29" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>24906</v>
+        <v>140</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2302,14 +2302,14 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098817366</t>
+          <t>9098796765</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,27 +2319,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T10:27:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>16.5</v>
+        <v>5.7</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>4812</v>
+        <v>7759</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,12 +2351,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2366,14 +2366,14 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098796026</t>
+          <t>9098798883</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-12T08:00:00+00:00</t>
+          <t>2025-03-12T10:52:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-12T08:10:00+00:00</t>
+          <t>2025-03-12T11:12:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>8.4</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>18533</v>
+        <v>15862</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2415,29 +2415,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098796425</t>
+          <t>9098816575</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-12T08:18:00+00:00</t>
+          <t>2025-03-12T11:14:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-12T08:28:00+00:00</t>
+          <t>2025-03-12T11:24:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>8247</v>
+        <v>2546</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2484,24 +2484,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098796321</t>
+          <t>9098800003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-12T08:28:00+00:00</t>
+          <t>2025-03-12T11:40:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-12T08:38:00+00:00</t>
+          <t>2025-03-12T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>11.7</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H33" t="n">
-        <v>766</v>
+        <v>16133</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098797657</t>
+          <t>9098806488</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.8</v>
+        <v>15.9</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="H34" t="n">
-        <v>1016</v>
+        <v>22618</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2607,29 +2607,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098796965</t>
+          <t>9098798838</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T13:23:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-12T10:20:00+00:00</t>
+          <t>2025-03-12T13:33:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>16.5</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="H35" t="n">
-        <v>140</v>
+        <v>3258</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2676,24 +2676,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098796765</t>
+          <t>9098796766</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-12T10:27:00+00:00</t>
+          <t>2025-03-12T13:35:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T13:45:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>16.8</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
-        <v>7759</v>
+        <v>2028</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2740,24 +2740,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098796605</t>
+          <t>9098809708</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T13:48:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-12T10:47:00+00:00</t>
+          <t>2025-03-12T13:58:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>17.40000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H37" t="n">
-        <v>624</v>
+        <v>3802</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2804,24 +2804,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098798883</t>
+          <t>9098803380</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:00+00:00</t>
+          <t>2025-03-12T14:00:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-12T11:23:00+00:00</t>
+          <t>2025-03-12T14:10:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>17.70000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H38" t="n">
-        <v>16481</v>
+        <v>2483</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2863,29 +2863,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098816575</t>
+          <t>9098811867</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-12T11:25:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-12T11:35:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9.300000000000001</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="H39" t="n">
-        <v>2546</v>
+        <v>9910</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098800003</t>
+          <t>9098812466</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-12T11:51:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-12T12:01:00+00:00</t>
+          <t>2025-03-12T15:40:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12.3</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H40" t="n">
-        <v>16133</v>
+        <v>843</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2991,29 +2991,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098806488</t>
+          <t>9098811646</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T15:46:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-12T13:20:00+00:00</t>
+          <t>2025-03-12T15:56:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>16.5</v>
+        <v>20.70000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H41" t="n">
-        <v>22618</v>
+        <v>6954</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3055,29 +3055,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098803380</t>
+          <t>9098810212</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-12T13:23:00+00:00</t>
+          <t>2025-03-12T16:10:00+00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-12T13:33:00+00:00</t>
+          <t>2025-03-12T16:20:00+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17.1</v>
+        <v>23.40000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H42" t="n">
-        <v>3682</v>
+        <v>14626</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3134,14 +3134,14 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098798838</t>
+          <t>9098816279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-12T13:33:00+00:00</t>
+          <t>2025-03-12T16:33:00+00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-12T13:43:00+00:00</t>
+          <t>2025-03-12T16:43:00+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17.1</v>
+        <v>25.8</v>
       </c>
       <c r="G43" t="n">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="H43" t="n">
-        <v>642</v>
+        <v>13409</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3188,24 +3188,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098796766</t>
+          <t>9098796425</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,27 +3215,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-12T13:45:00+00:00</t>
+          <t>2025-03-12T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-12T13:55:00+00:00</t>
+          <t>2025-03-12T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17.4</v>
+        <v>1.8</v>
       </c>
       <c r="G44" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2028</v>
+        <v>11083</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098809708</t>
+          <t>9098802162</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3279,27 +3279,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-12T13:58:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-12T14:08:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>18</v>
+        <v>3.3</v>
       </c>
       <c r="G45" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>3802</v>
+        <v>9446</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3311,17 +3311,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098811867</t>
+          <t>9098810737</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3348,22 +3348,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19.5</v>
+        <v>5.1</v>
       </c>
       <c r="G46" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>8185</v>
+        <v>10425</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3397,7 +3397,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9098811646</t>
+          <t>9098810368</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-12T15:17:00+00:00</t>
+          <t>2025-03-12T15:39:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-12T15:27:00+00:00</t>
+          <t>2025-03-12T15:49:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20.7</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H47" t="n">
-        <v>7523</v>
+        <v>9760</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3461,7 +3461,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9098810212</t>
+          <t>9098799836</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3471,27 +3471,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-12T15:41:00+00:00</t>
+          <t>2025-03-12T15:51:00+00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-12T15:51:00+00:00</t>
+          <t>2025-03-12T16:01:00+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>23.4</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
-        <v>14626</v>
+        <v>2290</v>
       </c>
       <c r="I48">
         <f>IF(E48=E47,H48+I47,H48)</f>
@@ -3525,7 +3525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098816279</t>
+          <t>9098811195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3545,17 +3545,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25.8</v>
+        <v>7.799999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>13409</v>
+        <v>3944</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3589,7 +3589,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098811195</t>
+          <t>9098811900</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,27 +3599,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-12T16:29:00+00:00</t>
+          <t>2025-03-12T16:31:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-12T16:39:00+00:00</t>
+          <t>2025-03-12T18:21:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>28.5</v>
+        <v>10.8</v>
       </c>
       <c r="G50" t="n">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>15972</v>
+        <v>17234</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3631,17 +3631,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3653,7 +3653,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098800694</t>
+          <t>9098802621</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3673,17 +3673,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3209</v>
+        <v>1059</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3695,17 +3695,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098810737</t>
+          <t>9098806278</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,27 +3727,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>9874</v>
+        <v>2604</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3759,29 +3759,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9098810368</t>
+          <t>9098806909</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-12T15:39:00+00:00</t>
+          <t>2025-03-12T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-12T15:49:00+00:00</t>
+          <t>2025-03-12T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>9760</v>
+        <v>2876</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3838,14 +3838,14 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098799836</t>
+          <t>9098806275</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-12T15:51:00+00:00</t>
+          <t>2025-03-12T14:05:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-12T16:01:00+00:00</t>
+          <t>2025-03-12T14:35:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>2290</v>
+        <v>3506</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3887,12 +3887,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3902,14 +3902,14 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098811900</t>
+          <t>9098810864</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,27 +3919,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-12T16:14:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-12T18:04:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>13388</v>
+        <v>4556</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3951,17 +3951,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3973,7 +3973,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098816602</t>
+          <t>9098815112</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,27 +3983,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-12T18:09:00+00:00</t>
+          <t>2025-03-12T15:31:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-12T18:39:00+00:00</t>
+          <t>2025-03-12T16:01:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="G56" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>5370</v>
+        <v>1797</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4020,24 +4020,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098802621</t>
+          <t>9098817533</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H57" t="n">
-        <v>1059</v>
+        <v>5123</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4094,14 +4094,14 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098806278</t>
+          <t>9098818250</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T17:31:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T18:01:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4125,13 +4125,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>2604</v>
+        <v>1523</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4158,14 +4158,14 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098806909</t>
+          <t>9098817949</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-12T13:32:00+00:00</t>
+          <t>2025-03-12T18:08:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-12T14:02:00+00:00</t>
+          <t>2025-03-12T18:38:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.6</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
-        <v>2876</v>
+        <v>7186</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4212,24 +4212,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098806275</t>
+          <t>9098806415</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,27 +4239,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-12T14:05:00+00:00</t>
+          <t>2025-03-12T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-12T14:35:00+00:00</t>
+          <t>2025-03-12T08:30:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3506</v>
+        <v>13108</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4271,29 +4271,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098810864</t>
+          <t>9098800372</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,27 +4303,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.8</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>4556</v>
+        <v>11234</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4350,14 +4350,14 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098815112</t>
+          <t>9098797833</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-12T15:31:00+00:00</t>
+          <t>2025-03-12T10:34:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-12T16:01:00+00:00</t>
+          <t>2025-03-12T11:04:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.1</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>1797</v>
+        <v>4302</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4399,29 +4399,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098817533</t>
+          <t>9098809379</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>5123</v>
+        <v>3570</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4478,14 +4478,14 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098818250</t>
+          <t>9098802467</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,27 +4495,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-12T17:31:00+00:00</t>
+          <t>2025-03-12T13:54:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-12T18:01:00+00:00</t>
+          <t>2025-03-12T14:24:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H64" t="n">
-        <v>1523</v>
+        <v>24308</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4527,29 +4527,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098817949</t>
+          <t>9098814550</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,27 +4559,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-12T18:08:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-12T18:38:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4.199999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G65" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H65" t="n">
-        <v>7186</v>
+        <v>32342</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098806415</t>
+          <t>9098801717</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-12T08:00:00+00:00</t>
+          <t>2025-03-12T15:37:00+00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-12T08:30:00+00:00</t>
+          <t>2025-03-12T15:47:00+00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.4</v>
+        <v>17.1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H66" t="n">
-        <v>13108</v>
+        <v>7835</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4655,12 +4655,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4670,14 +4670,14 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098800372</t>
+          <t>9098811748</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T15:52:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T16:22:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H67" t="n">
-        <v>11234</v>
+        <v>5833</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4734,14 +4734,14 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098797833</t>
+          <t>9098815902</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-12T10:34:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-12T11:04:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.799999999999999</v>
+        <v>18.6</v>
       </c>
       <c r="G68" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H68" t="n">
-        <v>4302</v>
+        <v>4222</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4798,14 +4798,14 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098809379</t>
+          <t>9098799802</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,27 +4815,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>3570</v>
+        <v>7230</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4847,12 +4847,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4862,14 +4862,14 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9098802467</t>
+          <t>9098797932</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4879,27 +4879,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-12T13:54:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-12T14:24:00+00:00</t>
+          <t>2025-03-12T11:07:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9.899999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="G70" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H70" t="n">
-        <v>24308</v>
+        <v>7903</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4926,14 +4926,14 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098814550</t>
+          <t>9098801562</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,27 +4943,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T11:23:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T11:48:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15.9</v>
+        <v>5.4</v>
       </c>
       <c r="G71" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="H71" t="n">
-        <v>32342</v>
+        <v>16797</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4975,29 +4975,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098801717</t>
+          <t>9098808858</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,27 +5007,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-12T15:37:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-12T15:47:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H72" t="n">
-        <v>7835</v>
+        <v>21357</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5039,29 +5039,29 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098810999</t>
+          <t>9098808131</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-12T15:48:00+00:00</t>
+          <t>2025-03-12T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-12T15:58:00+00:00</t>
+          <t>2025-03-12T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H73" t="n">
-        <v>1181</v>
+        <v>1358</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5103,29 +5103,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098811748</t>
+          <t>9098817370</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,27 +5135,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-12T16:02:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-12T16:32:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17.7</v>
+        <v>10.8</v>
       </c>
       <c r="G74" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H74" t="n">
-        <v>4669</v>
+        <v>8408</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5182,14 +5182,14 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098815902</t>
+          <t>9098817715</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,27 +5199,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T17:36:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T18:06:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>18.3</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H75" t="n">
-        <v>4222</v>
+        <v>6889</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5231,17 +5231,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5253,7 +5253,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098799802</t>
+          <t>9098818246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T18:08:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T18:38:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.2</v>
+        <v>12.3</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H76" t="n">
-        <v>7230</v>
+        <v>2552</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098797932</t>
+          <t>9098817524</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T18:40:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-12T11:07:00+00:00</t>
+          <t>2025-03-12T19:10:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.4</v>
+        <v>12.6</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="H77" t="n">
-        <v>7903</v>
+        <v>2704</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5364,24 +5364,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098801562</t>
+          <t>9098796819</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,27 +5391,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-12T11:23:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-12T11:48:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="G78" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>16797</v>
+        <v>9844</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5423,17 +5423,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5445,7 +5445,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098808858</t>
+          <t>9098796268</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:20:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G79" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H79" t="n">
-        <v>21357</v>
+        <v>10562</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5487,29 +5487,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098808131</t>
+          <t>9098800556</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,27 +5519,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-12T13:31:00+00:00</t>
+          <t>2025-03-12T10:45:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-12T14:01:00+00:00</t>
+          <t>2025-03-12T12:35:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9.300000000000001</v>
+        <v>6.299999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H80" t="n">
-        <v>1358</v>
+        <v>15372</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5551,29 +5551,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098817370</t>
+          <t>9098809007</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5583,27 +5583,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="G81" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H81" t="n">
-        <v>8408</v>
+        <v>22471</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5615,29 +5615,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098817715</t>
+          <t>9098817504</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5647,27 +5647,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-12T17:36:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-12T18:06:00+00:00</t>
+          <t>2025-03-12T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="G82" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H82" t="n">
-        <v>6889</v>
+        <v>4579</v>
       </c>
       <c r="I82">
         <f>IF(E82=E81,H82+I81,H82)</f>
@@ -5679,17 +5679,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098818246</t>
+          <t>9098801537</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,27 +5711,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-12T18:08:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-12T18:38:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>12.3</v>
+        <v>0.6</v>
       </c>
       <c r="G83" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2552</v>
+        <v>4480</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5758,14 +5758,14 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098817524</t>
+          <t>9098797154</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5775,27 +5775,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-12T18:40:00+00:00</t>
+          <t>2025-03-12T10:35:00+00:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-12T19:10:00+00:00</t>
+          <t>2025-03-12T11:05:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>12.6</v>
+        <v>1.5</v>
       </c>
       <c r="G84" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>2704</v>
+        <v>5005</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5807,29 +5807,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9098796268</t>
+          <t>9098796605</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5839,27 +5839,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T11:23:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H85" t="n">
-        <v>1122</v>
+        <v>18631</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5871,17 +5871,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -5893,7 +5893,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098800556</t>
+          <t>9098804580</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5903,27 +5903,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-12T10:25:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-12T12:15:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="G86" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H86" t="n">
-        <v>15372</v>
+        <v>15984</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5940,24 +5940,24 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9098809007</t>
+          <t>9098805550</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5967,27 +5967,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-03-12T14:50:00+00:00</t>
+          <t>2025-03-12T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="G87" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H87" t="n">
-        <v>22471</v>
+        <v>1269</v>
       </c>
       <c r="I87">
         <f>IF(E87=E86,H87+I86,H87)</f>
@@ -6004,12 +6004,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6021,7 +6021,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9098801537</t>
+          <t>9098813993</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6045,13 +6045,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H88" t="n">
-        <v>4480</v>
+        <v>8338</v>
       </c>
       <c r="I88">
         <f>IF(E88=E87,H88+I87,H88)</f>
@@ -6078,14 +6078,14 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9098797154</t>
+          <t>9098809968</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6095,12 +6095,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-12T10:35:00+00:00</t>
+          <t>2025-03-12T15:36:00+00:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-03-12T11:05:00+00:00</t>
+          <t>2025-03-12T16:06:00+00:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.5</v>
+        <v>10.2</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H89" t="n">
-        <v>5005</v>
+        <v>6853</v>
       </c>
       <c r="I89">
         <f>IF(E89=E88,H89+I88,H89)</f>
@@ -6132,24 +6132,24 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>9098804580</t>
+          <t>9098811408</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T16:08:00+00:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T16:18:00+00:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6173,13 +6173,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H90" t="n">
-        <v>2746</v>
+        <v>2134</v>
       </c>
       <c r="I90">
         <f>IF(E90=E89,H90+I89,H90)</f>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6206,14 +6206,14 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9098805550</t>
+          <t>9098808949</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-12T13:31:00+00:00</t>
+          <t>2025-03-12T16:19:00+00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-03-12T14:01:00+00:00</t>
+          <t>2025-03-12T16:29:00+00:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H91" t="n">
-        <v>1269</v>
+        <v>1184</v>
       </c>
       <c r="I91">
         <f>IF(E91=E90,H91+I90,H91)</f>
@@ -6255,29 +6255,29 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>9098813993</t>
+          <t>9098811423</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T16:34:00+00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T17:04:00+00:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6301,13 +6301,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.3</v>
+        <v>11.4</v>
       </c>
       <c r="G92" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H92" t="n">
-        <v>8338</v>
+        <v>5885</v>
       </c>
       <c r="I92">
         <f>IF(E92=E91,H92+I91,H92)</f>
@@ -6341,7 +6341,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>9098809968</t>
+          <t>9098818169</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-12T15:36:00+00:00</t>
+          <t>2025-03-12T17:06:00+00:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-03-12T16:06:00+00:00</t>
+          <t>2025-03-12T17:36:00+00:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.5</v>
+        <v>11.7</v>
       </c>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H93" t="n">
-        <v>6853</v>
+        <v>2865</v>
       </c>
       <c r="I93">
         <f>IF(E93=E92,H93+I92,H93)</f>
@@ -6388,24 +6388,24 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9098811408</t>
+          <t>9098798675</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6415,27 +6415,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-12T16:08:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-03-12T16:18:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="G94" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2134</v>
+        <v>2571</v>
       </c>
       <c r="I94">
         <f>IF(E94=E93,H94+I93,H94)</f>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6462,14 +6462,14 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>9098808949</t>
+          <t>9098807820</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6479,27 +6479,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-12T16:19:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-03-12T16:29:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>1184</v>
+        <v>4254</v>
       </c>
       <c r="I95">
         <f>IF(E95=E94,H95+I94,H95)</f>
@@ -6511,29 +6511,29 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>9098811423</t>
+          <t>9098806714</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6543,27 +6543,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-12T16:34:00+00:00</t>
+          <t>2025-03-12T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-03-12T17:04:00+00:00</t>
+          <t>2025-03-12T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5.699999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
-        <v>5885</v>
+        <v>1248</v>
       </c>
       <c r="I96">
         <f>IF(E96=E95,H96+I95,H96)</f>
@@ -6580,24 +6580,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>9098818169</t>
+          <t>9098807980</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6607,27 +6607,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-03-12T17:06:00+00:00</t>
+          <t>2025-03-12T14:03:00+00:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-03-12T17:36:00+00:00</t>
+          <t>2025-03-12T14:13:00+00:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5.999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G97" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
-        <v>2865</v>
+        <v>2283</v>
       </c>
       <c r="I97">
         <f>IF(E97=E96,H97+I96,H97)</f>
@@ -6639,12 +6639,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6654,14 +6654,14 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9098798675</t>
+          <t>9098804147</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6671,12 +6671,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T14:13:00+00:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T14:23:00+00:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6685,13 +6685,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H98" t="n">
-        <v>2571</v>
+        <v>138</v>
       </c>
       <c r="I98">
         <f>IF(E98=E97,H98+I97,H98)</f>
@@ -6703,29 +6703,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>9098807820</t>
+          <t>9098804799</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6735,12 +6735,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T14:24:00+00:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T14:54:00+00:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>4254</v>
+        <v>1560</v>
       </c>
       <c r="I99">
         <f>IF(E99=E98,H99+I98,H99)</f>
@@ -6772,12 +6772,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9098806714</t>
+          <t>9098802662</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6799,12 +6799,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-12T13:31:00+00:00</t>
+          <t>2025-03-12T14:56:00+00:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-03-12T14:01:00+00:00</t>
+          <t>2025-03-12T15:26:00+00:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H100" t="n">
-        <v>1248</v>
+        <v>2556</v>
       </c>
       <c r="I100">
         <f>IF(E100=E99,H100+I99,H100)</f>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9098807980</t>
+          <t>9098807633</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-12T14:03:00+00:00</t>
+          <t>2025-03-12T15:27:00+00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-03-12T14:13:00+00:00</t>
+          <t>2025-03-12T15:57:00+00:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H101" t="n">
-        <v>2283</v>
+        <v>1802</v>
       </c>
       <c r="I101">
         <f>IF(E101=E100,H101+I100,H101)</f>
@@ -6895,12 +6895,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -6910,14 +6910,14 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9098804147</t>
+          <t>9098811098</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-12T14:13:00+00:00</t>
+          <t>2025-03-12T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-03-12T14:23:00+00:00</t>
+          <t>2025-03-12T16:34:00+00:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6941,13 +6941,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H102" t="n">
-        <v>138</v>
+        <v>7075</v>
       </c>
       <c r="I102">
         <f>IF(E102=E101,H102+I101,H102)</f>
@@ -6959,29 +6959,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>9098804799</t>
+          <t>9098809075</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6991,12 +6991,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-12T14:24:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-03-12T14:54:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H103" t="n">
-        <v>1560</v>
+        <v>4571</v>
       </c>
       <c r="I103">
         <f>IF(E103=E102,H103+I102,H103)</f>
@@ -7038,14 +7038,14 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9098802662</t>
+          <t>9098801910</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7055,27 +7055,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-12T14:56:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-03-12T15:26:00+00:00</t>
+          <t>2025-03-12T10:25:00+00:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>2556</v>
+        <v>1538</v>
       </c>
       <c r="I104">
         <f>IF(E104=E103,H104+I103,H104)</f>
@@ -7087,12 +7087,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7102,14 +7102,14 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9098807633</t>
+          <t>9098802798</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7119,27 +7119,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-12T15:27:00+00:00</t>
+          <t>2025-03-12T10:25:00+00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-03-12T15:57:00+00:00</t>
+          <t>2025-03-12T10:55:00+00:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>1802</v>
+        <v>660</v>
       </c>
       <c r="I105">
         <f>IF(E105=E104,H105+I104,H105)</f>
@@ -7151,12 +7151,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7166,14 +7166,14 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9098811098</t>
+          <t>9098796542</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7183,27 +7183,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-03-12T16:04:00+00:00</t>
+          <t>2025-03-12T10:55:00+00:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-03-12T16:34:00+00:00</t>
+          <t>2025-03-12T11:25:00+00:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7075</v>
+        <v>743</v>
       </c>
       <c r="I106">
         <f>IF(E106=E105,H106+I105,H106)</f>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7230,14 +7230,14 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9098809075</t>
+          <t>9098809258</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7247,27 +7247,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="G107" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H107" t="n">
-        <v>4571</v>
+        <v>11856</v>
       </c>
       <c r="I107">
         <f>IF(E107=E106,H107+I106,H107)</f>
@@ -7279,12 +7279,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7294,14 +7294,14 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9098801910</t>
+          <t>9098807199</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T13:42:00+00:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-03-12T10:25:00+00:00</t>
+          <t>2025-03-12T14:12:00+00:00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7325,13 +7325,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H108" t="n">
-        <v>1538</v>
+        <v>12328</v>
       </c>
       <c r="I108">
         <f>IF(E108=E107,H108+I107,H108)</f>
@@ -7348,24 +7348,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>9098802798</t>
+          <t>9098813657</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7375,12 +7375,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-03-12T10:25:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-03-12T10:55:00+00:00</t>
+          <t>2025-03-12T15:25:00+00:00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7389,13 +7389,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H109" t="n">
-        <v>660</v>
+        <v>8037</v>
       </c>
       <c r="I109">
         <f>IF(E109=E108,H109+I108,H109)</f>
@@ -7412,24 +7412,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9098796542</t>
+          <t>9098815248</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-03-12T10:55:00+00:00</t>
+          <t>2025-03-12T15:25:00+00:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-03-12T11:25:00+00:00</t>
+          <t>2025-03-12T15:55:00+00:00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H110" t="n">
-        <v>743</v>
+        <v>619</v>
       </c>
       <c r="I110">
         <f>IF(E110=E109,H110+I109,H110)</f>
@@ -7486,14 +7486,14 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>9098809258</t>
+          <t>9098813197</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T15:58:00+00:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T16:23:00+00:00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7517,13 +7517,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="G111" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H111" t="n">
-        <v>11856</v>
+        <v>3132</v>
       </c>
       <c r="I111">
         <f>IF(E111=E110,H111+I110,H111)</f>
@@ -7540,24 +7540,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9098807199</t>
+          <t>9098814866</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7567,12 +7567,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-03-12T13:42:00+00:00</t>
+          <t>2025-03-12T16:27:00+00:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-03-12T14:12:00+00:00</t>
+          <t>2025-03-12T16:57:00+00:00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7581,13 +7581,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="G112" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H112" t="n">
-        <v>12328</v>
+        <v>4028</v>
       </c>
       <c r="I112">
         <f>IF(E112=E111,H112+I111,H112)</f>
@@ -7614,14 +7614,14 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>9098813657</t>
+          <t>9098797435</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7631,27 +7631,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-03-12T15:25:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="G113" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>8037</v>
+        <v>11389</v>
       </c>
       <c r="I113">
         <f>IF(E113=E112,H113+I112,H113)</f>
@@ -7663,29 +7663,29 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>9098815248</t>
+          <t>9098800694</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7695,27 +7695,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-03-12T15:25:00+00:00</t>
+          <t>2025-03-12T10:19:00+00:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-03-12T15:55:00+00:00</t>
+          <t>2025-03-12T10:49:00+00:00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="G114" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H114" t="n">
-        <v>619</v>
+        <v>9183</v>
       </c>
       <c r="I114">
         <f>IF(E114=E113,H114+I113,H114)</f>
@@ -7727,29 +7727,29 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>9098813197</t>
+          <t>9098805804</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7759,27 +7759,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-03-12T15:58:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-03-12T16:23:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="G115" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H115" t="n">
-        <v>3132</v>
+        <v>1976</v>
       </c>
       <c r="I115">
         <f>IF(E115=E114,H115+I114,H115)</f>
@@ -7791,29 +7791,29 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>9098814866</t>
+          <t>9098798510</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7823,27 +7823,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-03-12T16:27:00+00:00</t>
+          <t>2025-03-12T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-03-12T16:57:00+00:00</t>
+          <t>2025-03-12T13:42:00+00:00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="G116" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H116" t="n">
-        <v>4028</v>
+        <v>2553</v>
       </c>
       <c r="I116">
         <f>IF(E116=E115,H116+I115,H116)</f>
@@ -7855,29 +7855,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>9098797435</t>
+          <t>9098817459</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -7901,13 +7901,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H117" t="n">
-        <v>11389</v>
+        <v>9744</v>
       </c>
       <c r="I117">
         <f>IF(E117=E116,H117+I116,H117)</f>
@@ -7924,24 +7924,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9098796819</t>
+          <t>9098804260</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7951,27 +7951,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-03-12T10:11:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-03-12T10:21:00+00:00</t>
+          <t>2025-03-12T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1650</v>
+        <v>2083</v>
       </c>
       <c r="I118">
         <f>IF(E118=E117,H118+I117,H118)</f>
@@ -7983,29 +7983,29 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>9098805804</t>
+          <t>9098814517</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8015,27 +8015,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>6020</v>
+        <v>10353</v>
       </c>
       <c r="I119">
         <f>IF(E119=E118,H119+I118,H119)</f>
@@ -8052,24 +8052,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>9098802162</t>
+          <t>9098800790</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8079,27 +8079,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-03-12T13:32:00+00:00</t>
+          <t>2025-03-12T16:57:00+00:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-03-12T14:02:00+00:00</t>
+          <t>2025-03-12T17:07:00+00:00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G120" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H120" t="n">
-        <v>2281</v>
+        <v>7554</v>
       </c>
       <c r="I120">
         <f>IF(E120=E119,H120+I119,H120)</f>
@@ -8111,29 +8111,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>9098812466</t>
+          <t>9098797338</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8143,27 +8143,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>5.399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G121" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>10517</v>
+        <v>2004</v>
       </c>
       <c r="I121">
         <f>IF(E121=E120,H121+I120,H121)</f>
@@ -8180,24 +8180,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>9098804260</t>
+          <t>9098796540</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8207,17 +8207,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-03-12T14:50:00+00:00</t>
+          <t>2025-03-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2083</v>
+        <v>587</v>
       </c>
       <c r="I122">
         <f>IF(E122=E121,H122+I121,H122)</f>
@@ -8244,24 +8244,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9098814517</t>
+          <t>9098799917</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8271,27 +8271,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T11:01:00+00:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-03-12T16:50:00+00:00</t>
+          <t>2025-03-12T11:31:00+00:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>10353</v>
+        <v>1041</v>
       </c>
       <c r="I123">
         <f>IF(E123=E122,H123+I122,H123)</f>
@@ -8308,24 +8308,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>9098797338</t>
+          <t>9098800098</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8335,12 +8335,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T11:49:00+00:00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T12:19:00+00:00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8349,13 +8349,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H124" t="n">
-        <v>2004</v>
+        <v>18520</v>
       </c>
       <c r="I124">
         <f>IF(E124=E123,H124+I123,H124)</f>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -8389,7 +8389,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9098796540</t>
+          <t>9098807631</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8399,12 +8399,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-03-12T11:00:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8413,13 +8413,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.3</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H125" t="n">
-        <v>587</v>
+        <v>18788</v>
       </c>
       <c r="I125">
         <f>IF(E125=E124,H125+I124,H125)</f>
@@ -8436,24 +8436,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>9098799917</t>
+          <t>9098802166</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-03-12T11:01:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-03-12T11:31:00+00:00</t>
+          <t>2025-03-12T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8477,13 +8477,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.3</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H126" t="n">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="I126">
         <f>IF(E126=E125,H126+I125,H126)</f>
@@ -8500,24 +8500,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>9098800098</t>
+          <t>9098802527</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-03-12T11:49:00+00:00</t>
+          <t>2025-03-12T14:00:00+00:00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-03-12T12:19:00+00:00</t>
+          <t>2025-03-12T14:30:00+00:00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H127" t="n">
-        <v>18520</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <f>IF(E127=E126,H127+I126,H127)</f>
@@ -8564,24 +8564,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>9098807631</t>
+          <t>9098808550</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8591,12 +8591,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T14:34:00+00:00</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T15:04:00+00:00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8605,13 +8605,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6.899999999999999</v>
+        <v>7.499999999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H128" t="n">
-        <v>18788</v>
+        <v>4290</v>
       </c>
       <c r="I128">
         <f>IF(E128=E127,H128+I127,H128)</f>
@@ -8628,12 +8628,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -8645,7 +8645,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>9098802166</t>
+          <t>9098813045</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8655,12 +8655,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T15:11:00+00:00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-03-12T14:00:00+00:00</t>
+          <t>2025-03-12T15:41:00+00:00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>6.899999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H129" t="n">
-        <v>972</v>
+        <v>7356</v>
       </c>
       <c r="I129">
         <f>IF(E129=E128,H129+I128,H129)</f>
@@ -8692,24 +8692,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>9098802527</t>
+          <t>9098810999</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8719,12 +8719,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-03-12T14:00:00+00:00</t>
+          <t>2025-03-12T15:47:00+00:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-03-12T14:30:00+00:00</t>
+          <t>2025-03-12T15:57:00+00:00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6.899999999999999</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>6579</v>
       </c>
       <c r="I130">
         <f>IF(E130=E129,H130+I129,H130)</f>
@@ -8751,29 +8751,29 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>9098808550</t>
+          <t>9098796476</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8783,27 +8783,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-03-12T14:34:00+00:00</t>
+          <t>2025-03-12T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-03-12T15:04:00+00:00</t>
+          <t>2025-03-12T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>7.499999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="G131" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>4290</v>
+        <v>18984</v>
       </c>
       <c r="I131">
         <f>IF(E131=E130,H131+I130,H131)</f>
@@ -8815,29 +8815,29 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>9098813045</t>
+          <t>9098797222</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8847,27 +8847,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-03-12T15:11:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-03-12T15:41:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>8.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G132" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="H132" t="n">
-        <v>7356</v>
+        <v>17125</v>
       </c>
       <c r="I132">
         <f>IF(E132=E131,H132+I131,H132)</f>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -8894,14 +8894,14 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>9098817459</t>
+          <t>9098809909</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-03-12T17:10:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8925,13 +8925,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H133" t="n">
-        <v>11074</v>
+        <v>642</v>
       </c>
       <c r="I133">
         <f>IF(E133=E132,H133+I132,H133)</f>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -9721,16 +9721,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -9777,10 +9777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -9805,19 +9805,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -10038,10 +10038,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -10066,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -10113,19 +10113,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -10186,19 +10186,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
         <v>20</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>30</v>
       </c>
-      <c r="D24" t="n">
-        <v>40</v>
-      </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -10242,16 +10242,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D26" t="n">
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -10270,19 +10270,19 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>30</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>170</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>160</v>
-      </c>
-      <c r="F27" t="n">
-        <v>30</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D31" t="n">
         <v>110</v>
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D32" t="n">
         <v>60</v>
@@ -10497,16 +10497,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>110</v>
       </c>
       <c r="E36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -10578,19 +10578,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -11146,11 +11146,11 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -11342,11 +11342,11 @@
         <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11538,11 +11538,11 @@
         <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11958,11 +11958,11 @@
         <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12126,11 +12126,11 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -12714,11 +12714,11 @@
         <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -12910,11 +12910,11 @@
         <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -13106,11 +13106,11 @@
         <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -13302,11 +13302,11 @@
         <v>11</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -13498,11 +13498,11 @@
         <v>11</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14590,11 +14590,11 @@
         <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14618,11 +14618,11 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -14646,11 +14646,11 @@
         <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -14870,11 +14870,11 @@
         <v>11</v>
       </c>
       <c r="E152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15066,11 +15066,11 @@
         <v>11</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15458,11 +15458,11 @@
         <v>3</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15486,11 +15486,11 @@
         <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15654,11 +15654,11 @@
         <v>11</v>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15850,11 +15850,11 @@
         <v>11</v>
       </c>
       <c r="E187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16242,11 +16242,11 @@
         <v>11</v>
       </c>
       <c r="E201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16830,11 +16830,11 @@
         <v>11</v>
       </c>
       <c r="E222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17222,11 +17222,11 @@
         <v>11</v>
       </c>
       <c r="E236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -18202,11 +18202,11 @@
         <v>11</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -18314,11 +18314,11 @@
         <v>4</v>
       </c>
       <c r="E275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18342,11 +18342,11 @@
         <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -18370,11 +18370,11 @@
         <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -18426,11 +18426,11 @@
         <v>4</v>
       </c>
       <c r="E279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18790,11 +18790,11 @@
         <v>11</v>
       </c>
       <c r="E292" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -19378,11 +19378,11 @@
         <v>11</v>
       </c>
       <c r="E313" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -19574,11 +19574,11 @@
         <v>11</v>
       </c>
       <c r="E320" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -19966,11 +19966,11 @@
         <v>11</v>
       </c>
       <c r="E334" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20078,11 +20078,11 @@
         <v>4</v>
       </c>
       <c r="E338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20106,11 +20106,11 @@
         <v>4</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -20134,11 +20134,11 @@
         <v>4</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F340" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -20554,11 +20554,11 @@
         <v>3</v>
       </c>
       <c r="E355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20582,11 +20582,11 @@
         <v>3</v>
       </c>
       <c r="E356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20750,11 +20750,11 @@
         <v>11</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F362" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21142,11 +21142,11 @@
         <v>11</v>
       </c>
       <c r="E376" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F376" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21338,11 +21338,11 @@
         <v>11</v>
       </c>
       <c r="E383" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F383" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21926,11 +21926,11 @@
         <v>11</v>
       </c>
       <c r="E404" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F404" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22514,11 +22514,11 @@
         <v>11</v>
       </c>
       <c r="E425" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F425" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23298,11 +23298,11 @@
         <v>11</v>
       </c>
       <c r="E453" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23494,11 +23494,11 @@
         <v>11</v>
       </c>
       <c r="E460" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23886,11 +23886,11 @@
         <v>11</v>
       </c>
       <c r="E474" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23998,11 +23998,11 @@
         <v>4</v>
       </c>
       <c r="E478" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24026,11 +24026,11 @@
         <v>4</v>
       </c>
       <c r="E479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -24054,11 +24054,11 @@
         <v>4</v>
       </c>
       <c r="E480" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F480" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -24670,11 +24670,11 @@
         <v>3</v>
       </c>
       <c r="E502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24698,11 +24698,11 @@
         <v>3</v>
       </c>
       <c r="E503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24866,11 +24866,11 @@
         <v>11</v>
       </c>
       <c r="E509" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -25062,11 +25062,11 @@
         <v>11</v>
       </c>
       <c r="E516" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F516" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -26238,11 +26238,11 @@
         <v>11</v>
       </c>
       <c r="E558" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28002,11 +28002,11 @@
         <v>11</v>
       </c>
       <c r="E621" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F621" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28198,11 +28198,11 @@
         <v>11</v>
       </c>
       <c r="E628" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28394,11 +28394,11 @@
         <v>11</v>
       </c>
       <c r="E635" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -29178,11 +29178,11 @@
         <v>11</v>
       </c>
       <c r="E663" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F663" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -30354,11 +30354,11 @@
         <v>11</v>
       </c>
       <c r="E705" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -30746,11 +30746,11 @@
         <v>11</v>
       </c>
       <c r="E719" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -31922,11 +31922,11 @@
         <v>11</v>
       </c>
       <c r="E761" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -32118,11 +32118,11 @@
         <v>11</v>
       </c>
       <c r="E768" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -32706,11 +32706,11 @@
         <v>3</v>
       </c>
       <c r="E789" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -32734,11 +32734,11 @@
         <v>3</v>
       </c>
       <c r="E790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33882,11 +33882,11 @@
         <v>11</v>
       </c>
       <c r="E831" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F831" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -34274,11 +34274,11 @@
         <v>11</v>
       </c>
       <c r="E845" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F845" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -34470,11 +34470,11 @@
         <v>11</v>
       </c>
       <c r="E852" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -34666,11 +34666,11 @@
         <v>11</v>
       </c>
       <c r="E859" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F859" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -35254,11 +35254,11 @@
         <v>11</v>
       </c>
       <c r="E880" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F880" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -35450,11 +35450,11 @@
         <v>11</v>
       </c>
       <c r="E887" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -35758,11 +35758,11 @@
         <v>4</v>
       </c>
       <c r="E898" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -35814,11 +35814,11 @@
         <v>4</v>
       </c>
       <c r="E900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -36234,11 +36234,11 @@
         <v>11</v>
       </c>
       <c r="E915" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -36560,7 +36560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105886</v>
+        <v>91632</v>
       </c>
     </row>
     <row r="3">
@@ -36580,7 +36580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164732</v>
+        <v>149479</v>
       </c>
     </row>
     <row r="5">
@@ -36590,7 +36590,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43891</v>
+        <v>64182</v>
       </c>
     </row>
     <row r="6">
@@ -36610,7 +36610,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106771</v>
+        <v>106754</v>
       </c>
     </row>
     <row r="8">
@@ -36630,7 +36630,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38965</v>
+        <v>62828</v>
       </c>
     </row>
     <row r="10">
@@ -36640,7 +36640,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40759</v>
+        <v>72628</v>
       </c>
     </row>
     <row r="11">
@@ -36670,7 +36670,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31857</v>
+        <v>34845</v>
       </c>
     </row>
     <row r="14">
@@ -36680,7 +36680,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12436</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="15">
@@ -36690,7 +36690,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53558</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="16">
@@ -36700,7 +36700,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11074</v>
+        <v>36751</v>
       </c>
     </row>
   </sheetData>
@@ -36714,7 +36714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36741,7 +36741,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-64804580.48888888</v>
+        <v>-59491565.27777776</v>
       </c>
     </row>
     <row r="3">
@@ -36751,7 +36751,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131999828.4</v>
+        <v>131999812.5</v>
       </c>
     </row>
     <row r="4">
@@ -36761,7 +36761,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18071552</v>
+        <v>17551360</v>
       </c>
     </row>
     <row r="5">
@@ -36791,7 +36791,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -36802,6 +36802,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>187.5</v>
       </c>
     </row>
   </sheetData>
